--- a/data_year/zb/人口/总人口.xlsx
+++ b/data_year/zb/人口/总人口.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,463 +463,287 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80837</v>
+        <v>67113</v>
       </c>
       <c r="C2" t="n">
-        <v>45906</v>
+        <v>66978</v>
       </c>
       <c r="D2" t="n">
-        <v>61306</v>
+        <v>65343</v>
       </c>
       <c r="E2" t="n">
-        <v>126743</v>
+        <v>134091</v>
       </c>
       <c r="F2" t="n">
-        <v>65437</v>
+        <v>68748</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79563</v>
+        <v>64989.0372</v>
       </c>
       <c r="C3" t="n">
-        <v>48064</v>
+        <v>69926.96279999999</v>
       </c>
       <c r="D3" t="n">
-        <v>61955</v>
+        <v>65755</v>
       </c>
       <c r="E3" t="n">
-        <v>127627</v>
+        <v>134916</v>
       </c>
       <c r="F3" t="n">
-        <v>65672</v>
+        <v>69161</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78241</v>
+        <v>63747.418</v>
       </c>
       <c r="C4" t="n">
-        <v>50212</v>
+        <v>72174.58199999999</v>
       </c>
       <c r="D4" t="n">
-        <v>62338</v>
+        <v>66262</v>
       </c>
       <c r="E4" t="n">
-        <v>128453</v>
+        <v>135922</v>
       </c>
       <c r="F4" t="n">
-        <v>66115</v>
+        <v>69660</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76851</v>
+        <v>62224.0026</v>
       </c>
       <c r="C5" t="n">
-        <v>52376</v>
+        <v>74501.99739999999</v>
       </c>
       <c r="D5" t="n">
-        <v>62671</v>
+        <v>66663</v>
       </c>
       <c r="E5" t="n">
-        <v>129227</v>
+        <v>136726</v>
       </c>
       <c r="F5" t="n">
-        <v>66556</v>
+        <v>70063</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75705</v>
+        <v>60908.355</v>
       </c>
       <c r="C6" t="n">
-        <v>54283</v>
+        <v>76737.645</v>
       </c>
       <c r="D6" t="n">
-        <v>63012</v>
+        <v>67124</v>
       </c>
       <c r="E6" t="n">
-        <v>129988</v>
+        <v>137646</v>
       </c>
       <c r="F6" t="n">
-        <v>66976</v>
+        <v>70522</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74544</v>
+        <v>59023.7042</v>
       </c>
       <c r="C7" t="n">
-        <v>56212</v>
+        <v>79302.29580000001</v>
       </c>
       <c r="D7" t="n">
-        <v>63381</v>
+        <v>67469</v>
       </c>
       <c r="E7" t="n">
-        <v>130756</v>
+        <v>138326</v>
       </c>
       <c r="F7" t="n">
-        <v>67375</v>
+        <v>70857</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>73160</v>
+        <v>57307.8912</v>
       </c>
       <c r="C8" t="n">
-        <v>58288</v>
+        <v>81924.1088</v>
       </c>
       <c r="D8" t="n">
-        <v>63720</v>
+        <v>67925</v>
       </c>
       <c r="E8" t="n">
-        <v>131448</v>
+        <v>139232</v>
       </c>
       <c r="F8" t="n">
-        <v>67728</v>
+        <v>71307</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>71496</v>
+        <v>55668.3736</v>
       </c>
       <c r="C9" t="n">
-        <v>60633</v>
+        <v>84342.62639999999</v>
       </c>
       <c r="D9" t="n">
-        <v>64081</v>
+        <v>68361</v>
       </c>
       <c r="E9" t="n">
-        <v>132129</v>
+        <v>140011</v>
       </c>
       <c r="F9" t="n">
-        <v>68048</v>
+        <v>71650</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>70399</v>
+        <v>54108.285</v>
       </c>
       <c r="C10" t="n">
-        <v>62403</v>
+        <v>86432.71499999989</v>
       </c>
       <c r="D10" t="n">
-        <v>64445</v>
+        <v>68677.1285742951</v>
       </c>
       <c r="E10" t="n">
-        <v>132802</v>
+        <v>140541</v>
       </c>
       <c r="F10" t="n">
-        <v>68357</v>
+        <v>71863.8714257048</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>68938</v>
+        <v>52581.8832</v>
       </c>
       <c r="C11" t="n">
-        <v>64512</v>
+        <v>88426.1167999999</v>
       </c>
       <c r="D11" t="n">
-        <v>64803.32</v>
+        <v>68969</v>
       </c>
       <c r="E11" t="n">
-        <v>133450</v>
+        <v>141008</v>
       </c>
       <c r="F11" t="n">
-        <v>68646.67999999999</v>
+        <v>72039</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>67113</v>
+        <v>50992</v>
       </c>
       <c r="C12" t="n">
-        <v>66978</v>
+        <v>90220</v>
       </c>
       <c r="D12" t="n">
-        <v>65342.5443</v>
+        <v>68855</v>
       </c>
       <c r="E12" t="n">
-        <v>134091</v>
+        <v>141212</v>
       </c>
       <c r="F12" t="n">
-        <v>68748.45570000001</v>
+        <v>72357</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64989.0372</v>
+        <v>49835</v>
       </c>
       <c r="C13" t="n">
-        <v>69926.96279999999</v>
+        <v>91425</v>
       </c>
       <c r="D13" t="n">
-        <v>65755</v>
+        <v>68949</v>
       </c>
       <c r="E13" t="n">
-        <v>134915.543763386</v>
+        <v>141260</v>
       </c>
       <c r="F13" t="n">
-        <v>69161</v>
+        <v>72311</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>63747.418</v>
+        <v>49104</v>
       </c>
       <c r="C14" t="n">
-        <v>72174.58199999999</v>
+        <v>92071</v>
       </c>
       <c r="D14" t="n">
-        <v>66262</v>
+        <v>68969</v>
       </c>
       <c r="E14" t="n">
-        <v>135922.370716363</v>
+        <v>141175</v>
       </c>
       <c r="F14" t="n">
-        <v>69660</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>62224.0026</v>
-      </c>
-      <c r="C15" t="n">
-        <v>74501.99739999999</v>
-      </c>
-      <c r="D15" t="n">
-        <v>66663</v>
-      </c>
-      <c r="E15" t="n">
-        <v>136726.092872672</v>
-      </c>
-      <c r="F15" t="n">
-        <v>70063</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>60908.355</v>
-      </c>
-      <c r="C16" t="n">
-        <v>76737.645</v>
-      </c>
-      <c r="D16" t="n">
-        <v>67124</v>
-      </c>
-      <c r="E16" t="n">
-        <v>137646.414300678</v>
-      </c>
-      <c r="F16" t="n">
-        <v>70522</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>59023.7042</v>
-      </c>
-      <c r="C17" t="n">
-        <v>79302.29580000001</v>
-      </c>
-      <c r="D17" t="n">
-        <v>67469</v>
-      </c>
-      <c r="E17" t="n">
-        <v>138326.414300678</v>
-      </c>
-      <c r="F17" t="n">
-        <v>70857</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>57307.8912</v>
-      </c>
-      <c r="C18" t="n">
-        <v>81924.1088</v>
-      </c>
-      <c r="D18" t="n">
-        <v>67925</v>
-      </c>
-      <c r="E18" t="n">
-        <v>139232.183246952</v>
-      </c>
-      <c r="F18" t="n">
-        <v>71307</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>55668.3736</v>
-      </c>
-      <c r="C19" t="n">
-        <v>84342.62639999999</v>
-      </c>
-      <c r="D19" t="n">
-        <v>68361</v>
-      </c>
-      <c r="E19" t="n">
-        <v>140011</v>
-      </c>
-      <c r="F19" t="n">
-        <v>71650</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>54108.285</v>
-      </c>
-      <c r="C20" t="n">
-        <v>86432.71499999989</v>
-      </c>
-      <c r="D20" t="n">
-        <v>68677.1285742951</v>
-      </c>
-      <c r="E20" t="n">
-        <v>140541</v>
-      </c>
-      <c r="F20" t="n">
-        <v>71863.8714257048</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>52581.8832</v>
-      </c>
-      <c r="C21" t="n">
-        <v>88426.1167999999</v>
-      </c>
-      <c r="D21" t="n">
-        <v>68969</v>
-      </c>
-      <c r="E21" t="n">
-        <v>141008</v>
-      </c>
-      <c r="F21" t="n">
-        <v>72039</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>50991.6532</v>
-      </c>
-      <c r="C22" t="n">
-        <v>90220.3468</v>
-      </c>
-      <c r="D22" t="n">
-        <v>68855</v>
-      </c>
-      <c r="E22" t="n">
-        <v>141212</v>
-      </c>
-      <c r="F22" t="n">
-        <v>72357</v>
+        <v>72206</v>
       </c>
     </row>
   </sheetData>
